--- a/translation.xlsx
+++ b/translation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="10995" windowHeight="8175" firstSheet="44" activeTab="55"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="10995" windowHeight="8175" firstSheet="42" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="alamar.ovr" sheetId="56" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="1868">
   <si>
     <t>A CHUTE...</t>
   </si>
@@ -6394,6 +6394,10 @@
   </si>
   <si>
     <t>Тронный зал</t>
+  </si>
+  <si>
+    <t>От пола до потолка стена покрыта
+черно-белым узором!</t>
   </si>
 </sst>
 </file>
@@ -24692,7 +24696,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24745,11 +24749,11 @@
         <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>793</v>
+        <v>1867</v>
       </c>
       <c r="D3" s="2">
         <f>LEN(C3)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24934,7 +24938,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25067,11 +25071,11 @@
         <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1794</v>
+        <v>1830</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -25083,8 +25087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25217,11 +25221,11 @@
         <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1794</v>
+        <v>1830</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -25369,7 +25373,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26591,7 +26595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="10995" windowHeight="8175" firstSheet="42" activeTab="48"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="10995" windowHeight="8175" firstSheet="50" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="alamar.ovr" sheetId="56" r:id="rId1"/>
@@ -6206,11 +6206,6 @@
 из-ключ-попасть-От-продолжение-…</t>
   </si>
   <si>
-    <t>"Я лорд Лучник, Ворон. 
-Я забираю у кого есть и раздаю тем,
-у кого нет! Согласны (Y/N)?"</t>
-  </si>
-  <si>
     <t>Кнопка на стене. Нажать (Y/N)?</t>
   </si>
   <si>
@@ -6398,6 +6393,11 @@
   <si>
     <t>От пола до потолка стена покрыта
 черно-белым узором!</t>
+  </si>
+  <si>
+    <t>"Я лорд Лучник, Ворон.
+Я забираю у кого есть и раздаю тем
+у кого нет! Согласны (Y/N)?"</t>
   </si>
 </sst>
 </file>
@@ -24749,7 +24749,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D3" s="2">
         <f>LEN(C3)</f>
@@ -25071,7 +25071,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -25087,7 +25087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -25221,7 +25221,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -25370,10 +25370,10 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25385,7 +25385,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1705</v>
       </c>
@@ -25400,8 +25400,11 @@
         <f t="shared" ref="D1:D8" si="1">LEN(C1)</f>
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E1" s="2">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1706</v>
       </c>
@@ -25416,8 +25419,12 @@
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <f>E1+D1 +1</f>
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1707</v>
       </c>
@@ -25432,8 +25439,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E10" si="2">E2+D2 +1</f>
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1708</v>
       </c>
@@ -25448,8 +25459,12 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1709</v>
       </c>
@@ -25464,8 +25479,12 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1710</v>
       </c>
@@ -25480,8 +25499,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1711</v>
       </c>
@@ -25496,8 +25519,12 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1712</v>
       </c>
@@ -25511,6 +25538,22 @@
       <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>54</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>2287</v>
       </c>
     </row>
   </sheetData>
@@ -25523,7 +25566,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25560,11 +25603,11 @@
         <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1811</v>
+        <v>1867</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25576,7 +25619,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -25592,7 +25635,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -25608,7 +25651,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -25624,7 +25667,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -25640,7 +25683,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -25656,7 +25699,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -25672,7 +25715,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -25688,7 +25731,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -25704,7 +25747,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -25720,7 +25763,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -26079,7 +26122,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26100,7 +26143,7 @@
         <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D11" si="1">LEN(C1)</f>
@@ -26116,7 +26159,7 @@
         <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -26132,7 +26175,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -26148,7 +26191,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -26164,7 +26207,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -26180,7 +26223,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -26212,7 +26255,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -26228,7 +26271,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -26244,7 +26287,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -26260,7 +26303,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -26277,7 +26320,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26314,7 +26357,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D2" s="2">
         <f>LEN(C2)</f>
@@ -26346,7 +26389,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D4" s="2">
         <f>LEN(C4)</f>
@@ -26362,7 +26405,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D5" s="2">
         <f>LEN(C5)</f>
@@ -26379,7 +26422,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C15:C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26400,7 +26443,7 @@
         <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D12" si="1">LEN(C1)</f>
@@ -26416,7 +26459,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -26432,7 +26475,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -26448,7 +26491,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -26464,7 +26507,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -26480,7 +26523,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -26496,7 +26539,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -26512,7 +26555,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -26528,7 +26571,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -26560,7 +26603,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -26576,7 +26619,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -26595,8 +26638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26617,7 +26660,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D25" si="1">LEN(C1)</f>
@@ -26633,7 +26676,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -26649,7 +26692,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -26665,7 +26708,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -26681,7 +26724,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -26697,7 +26740,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -26713,7 +26756,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -26729,7 +26772,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -26745,7 +26788,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -26761,7 +26804,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -26777,7 +26820,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -26793,7 +26836,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -26809,7 +26852,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -26825,7 +26868,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -26841,7 +26884,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
@@ -26857,7 +26900,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
@@ -26873,7 +26916,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
@@ -26889,7 +26932,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
@@ -26905,7 +26948,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
@@ -26921,7 +26964,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
@@ -26937,7 +26980,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
@@ -26953,7 +26996,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
@@ -26985,7 +27028,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
@@ -27001,7 +27044,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="10995" windowHeight="8175" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="10995" windowHeight="8175" firstSheet="35" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="alamar.ovr" sheetId="56" r:id="rId1"/>
@@ -3789,9 +3789,6 @@
     <t>` COMMANDS</t>
   </si>
   <si>
-    <t>` Команды </t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
@@ -6398,6 +6395,9 @@
   </si>
   <si>
     <t>Где самое модное?</t>
+  </si>
+  <si>
+    <t>` Команды</t>
   </si>
 </sst>
 </file>
@@ -7082,7 +7082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -7200,7 +7200,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -14748,15 +14748,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D595"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -16563,23 +16563,23 @@
         <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1050</v>
+        <v>1867</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B115" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" si="3"/>
@@ -16588,14 +16588,14 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B116" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" si="3"/>
@@ -16604,14 +16604,14 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B117" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" si="3"/>
@@ -16620,14 +16620,14 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B118" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" si="3"/>
@@ -16636,14 +16636,14 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B119" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" si="3"/>
@@ -16652,14 +16652,14 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B120" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" si="3"/>
@@ -16668,14 +16668,14 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B121" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" si="3"/>
@@ -16684,14 +16684,14 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B122" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" si="3"/>
@@ -16700,14 +16700,14 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B123" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" si="3"/>
@@ -16716,14 +16716,14 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B124" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D124" s="2">
         <f t="shared" si="3"/>
@@ -16732,14 +16732,14 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B125" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D125" s="2">
         <f t="shared" si="3"/>
@@ -16748,14 +16748,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B126" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D126" s="2">
         <f t="shared" si="3"/>
@@ -16764,14 +16764,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B127" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D127" s="2">
         <f t="shared" si="3"/>
@@ -16780,14 +16780,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B128" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" si="3"/>
@@ -16796,14 +16796,14 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B129" s="2">
         <f t="shared" ref="B129:B192" si="4">LEN(A129)</f>
         <v>10</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" ref="D129:D192" si="5">LEN(C129)</f>
@@ -16812,14 +16812,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B130" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" si="5"/>
@@ -16828,14 +16828,14 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B131" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" si="5"/>
@@ -16844,14 +16844,14 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B132" s="2">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" si="5"/>
@@ -16860,14 +16860,14 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B133" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" si="5"/>
@@ -16876,14 +16876,14 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B134" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" si="5"/>
@@ -16892,14 +16892,14 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B135" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" si="5"/>
@@ -16908,14 +16908,14 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B136" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" si="5"/>
@@ -16924,14 +16924,14 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B137" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" si="5"/>
@@ -16940,14 +16940,14 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B138" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D138" s="2">
         <f t="shared" si="5"/>
@@ -16956,14 +16956,14 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B139" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" si="5"/>
@@ -16972,14 +16972,14 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B140" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D140" s="2">
         <f t="shared" si="5"/>
@@ -16988,14 +16988,14 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B141" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D141" s="2">
         <f t="shared" si="5"/>
@@ -17004,14 +17004,14 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B142" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D142" s="2">
         <f t="shared" si="5"/>
@@ -17068,14 +17068,14 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B146" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D146" s="2">
         <f t="shared" si="5"/>
@@ -17084,14 +17084,14 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B147" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D147" s="2">
         <f t="shared" si="5"/>
@@ -17100,14 +17100,14 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B148" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D148" s="2">
         <f t="shared" si="5"/>
@@ -17116,14 +17116,14 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B149" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D149" s="2">
         <f t="shared" si="5"/>
@@ -17132,14 +17132,14 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B150" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D150" s="2">
         <f t="shared" si="5"/>
@@ -17148,14 +17148,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B151" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D151" s="2">
         <f t="shared" si="5"/>
@@ -17164,14 +17164,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B152" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D152" s="2">
         <f t="shared" si="5"/>
@@ -17180,14 +17180,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B153" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D153" s="2">
         <f t="shared" si="5"/>
@@ -17196,14 +17196,14 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B154" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D154" s="2">
         <f t="shared" si="5"/>
@@ -17212,14 +17212,14 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B155" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D155" s="2">
         <f t="shared" si="5"/>
@@ -17228,14 +17228,14 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B156" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D156" s="2">
         <f t="shared" si="5"/>
@@ -17244,14 +17244,14 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B157" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D157" s="2">
         <f t="shared" si="5"/>
@@ -17260,14 +17260,14 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B158" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D158" s="2">
         <f t="shared" si="5"/>
@@ -17276,14 +17276,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B159" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D159" s="2">
         <f t="shared" si="5"/>
@@ -17292,14 +17292,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B160" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D160" s="2">
         <f t="shared" si="5"/>
@@ -17308,14 +17308,14 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B161" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D161" s="2">
         <f t="shared" si="5"/>
@@ -17324,14 +17324,14 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B162" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D162" s="2">
         <f t="shared" si="5"/>
@@ -17340,14 +17340,14 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B163" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D163" s="2">
         <f t="shared" si="5"/>
@@ -17356,14 +17356,14 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B164" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D164" s="2">
         <f t="shared" si="5"/>
@@ -17372,14 +17372,14 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B165" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D165" s="2">
         <f t="shared" si="5"/>
@@ -17388,14 +17388,14 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B166" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D166" s="2">
         <f t="shared" si="5"/>
@@ -17404,14 +17404,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B167" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D167" s="2">
         <f t="shared" si="5"/>
@@ -17420,14 +17420,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B168" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D168" s="2">
         <f t="shared" si="5"/>
@@ -17443,7 +17443,7 @@
         <v>18</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D169" s="2">
         <f t="shared" si="5"/>
@@ -17452,14 +17452,14 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B170" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D170" s="2">
         <f t="shared" si="5"/>
@@ -17468,14 +17468,14 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B171" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D171" s="2">
         <f t="shared" si="5"/>
@@ -17484,14 +17484,14 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B172" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D172" s="2">
         <f t="shared" si="5"/>
@@ -17500,14 +17500,14 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B173" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D173" s="2">
         <f t="shared" si="5"/>
@@ -17546,14 +17546,14 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B177" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D177" s="2">
         <f t="shared" si="5"/>
@@ -17562,14 +17562,14 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B178" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D178" s="2">
         <f t="shared" si="5"/>
@@ -17578,14 +17578,14 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B179" s="2">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D179" s="2">
         <f t="shared" si="5"/>
@@ -17594,14 +17594,14 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B180" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D180" s="2">
         <f t="shared" si="5"/>
@@ -17610,14 +17610,14 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B181" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D181" s="2">
         <f t="shared" si="5"/>
@@ -17626,14 +17626,14 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B182" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D182" s="2">
         <f t="shared" si="5"/>
@@ -17642,14 +17642,14 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B183" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D183" s="2">
         <f t="shared" si="5"/>
@@ -17658,14 +17658,14 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B184" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D184" s="2">
         <f t="shared" si="5"/>
@@ -17674,14 +17674,14 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B185" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D185" s="2">
         <f t="shared" si="5"/>
@@ -17690,14 +17690,14 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B186" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D186" s="2">
         <f t="shared" si="5"/>
@@ -17706,14 +17706,14 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B187" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D187" s="2">
         <f t="shared" si="5"/>
@@ -17722,14 +17722,14 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B188" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D188" s="2">
         <f t="shared" si="5"/>
@@ -17745,7 +17745,7 @@
         <v>15</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D189" s="2">
         <f t="shared" si="5"/>
@@ -17754,14 +17754,14 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B190" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D190" s="2">
         <f t="shared" si="5"/>
@@ -17770,14 +17770,14 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B191" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D191" s="2">
         <f t="shared" si="5"/>
@@ -17786,14 +17786,14 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B192" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D192" s="2">
         <f t="shared" si="5"/>
@@ -17802,14 +17802,14 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B193" s="2">
         <f t="shared" ref="B193:B256" si="6">LEN(A193)</f>
         <v>8</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D193" s="2">
         <f t="shared" ref="D193:D256" si="7">LEN(C193)</f>
@@ -17818,14 +17818,14 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B194" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D194" s="2">
         <f t="shared" si="7"/>
@@ -17834,14 +17834,14 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B195" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D195" s="2">
         <f t="shared" si="7"/>
@@ -17850,14 +17850,14 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B196" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D196" s="2">
         <f t="shared" si="7"/>
@@ -17866,14 +17866,14 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B197" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D197" s="2">
         <f t="shared" si="7"/>
@@ -17882,14 +17882,14 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B198" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D198" s="2">
         <f t="shared" si="7"/>
@@ -17898,14 +17898,14 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B199" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D199" s="2">
         <f t="shared" si="7"/>
@@ -17914,14 +17914,14 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B200" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D200" s="2">
         <f t="shared" si="7"/>
@@ -17930,14 +17930,14 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B201" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D201" s="2">
         <f t="shared" si="7"/>
@@ -17946,14 +17946,14 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B202" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D202" s="2">
         <f t="shared" si="7"/>
@@ -17962,14 +17962,14 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B203" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D203" s="2">
         <f t="shared" si="7"/>
@@ -17978,14 +17978,14 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B204" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D204" s="2">
         <f t="shared" si="7"/>
@@ -17994,14 +17994,14 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B205" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D205" s="2">
         <f t="shared" si="7"/>
@@ -18010,14 +18010,14 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B206" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D206" s="2">
         <f t="shared" si="7"/>
@@ -18026,14 +18026,14 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B207" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D207" s="2">
         <f t="shared" si="7"/>
@@ -18042,14 +18042,14 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B208" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D208" s="2">
         <f t="shared" si="7"/>
@@ -18058,14 +18058,14 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B209" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D209" s="2">
         <f t="shared" si="7"/>
@@ -18074,14 +18074,14 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B210" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D210" s="2">
         <f t="shared" si="7"/>
@@ -18090,14 +18090,14 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B211" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D211" s="2">
         <f t="shared" si="7"/>
@@ -18106,14 +18106,14 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B212" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="7"/>
@@ -18122,14 +18122,14 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B213" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="7"/>
@@ -18138,14 +18138,14 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B214" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="7"/>
@@ -18154,14 +18154,14 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B215" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D215" s="2">
         <f t="shared" si="7"/>
@@ -18170,14 +18170,14 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B216" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D216" s="2">
         <f t="shared" si="7"/>
@@ -18186,14 +18186,14 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B217" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D217" s="2">
         <f t="shared" si="7"/>
@@ -18202,14 +18202,14 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B218" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D218" s="2">
         <f t="shared" si="7"/>
@@ -18218,14 +18218,14 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B219" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D219" s="2">
         <f t="shared" si="7"/>
@@ -18234,14 +18234,14 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B220" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D220" s="2">
         <f t="shared" si="7"/>
@@ -18250,14 +18250,14 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B221" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D221" s="2">
         <f t="shared" si="7"/>
@@ -18266,14 +18266,14 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B222" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D222" s="2">
         <f t="shared" si="7"/>
@@ -18282,14 +18282,14 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B223" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D223" s="2">
         <f t="shared" si="7"/>
@@ -18298,14 +18298,14 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B224" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D224" s="2">
         <f t="shared" si="7"/>
@@ -18314,14 +18314,14 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B225" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D225" s="2">
         <f t="shared" si="7"/>
@@ -18330,14 +18330,14 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B226" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D226" s="2">
         <f t="shared" si="7"/>
@@ -18346,14 +18346,14 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B227" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D227" s="2">
         <f t="shared" si="7"/>
@@ -18362,14 +18362,14 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B228" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D228" s="2">
         <f t="shared" si="7"/>
@@ -18378,14 +18378,14 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B229" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D229" s="2">
         <f t="shared" si="7"/>
@@ -18394,14 +18394,14 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B230" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D230" s="2">
         <f t="shared" si="7"/>
@@ -18410,14 +18410,14 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B231" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D231" s="2">
         <f t="shared" si="7"/>
@@ -18426,14 +18426,14 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B232" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D232" s="2">
         <f t="shared" si="7"/>
@@ -18442,14 +18442,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B233" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D233" s="2">
         <f t="shared" si="7"/>
@@ -18458,14 +18458,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B234" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D234" s="2">
         <f t="shared" si="7"/>
@@ -18474,14 +18474,14 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B235" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D235" s="2">
         <f t="shared" si="7"/>
@@ -18490,14 +18490,14 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B236" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D236" s="2">
         <f t="shared" si="7"/>
@@ -18506,14 +18506,14 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B237" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D237" s="2">
         <f t="shared" si="7"/>
@@ -18522,14 +18522,14 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B238" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D238" s="2">
         <f t="shared" si="7"/>
@@ -18678,14 +18678,14 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B253" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D253" s="2">
         <f t="shared" si="7"/>
@@ -18694,14 +18694,14 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B254" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D254" s="2">
         <f t="shared" si="7"/>
@@ -18710,14 +18710,14 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B255" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D255" s="2">
         <f t="shared" si="7"/>
@@ -18726,14 +18726,14 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B256" s="2">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D256" s="2">
         <f t="shared" si="7"/>
@@ -18742,14 +18742,14 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B257" s="2">
         <f t="shared" ref="B257:B320" si="8">LEN(A257)</f>
         <v>27</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D257" s="2">
         <f t="shared" ref="D257:D320" si="9">LEN(C257)</f>
@@ -18758,14 +18758,14 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B258" s="2">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D258" s="2">
         <f t="shared" si="9"/>
@@ -18774,14 +18774,14 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B259" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D259" s="2">
         <f t="shared" si="9"/>
@@ -18790,14 +18790,14 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B260" s="2">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D260" s="2">
         <f t="shared" si="9"/>
@@ -18806,14 +18806,14 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B261" s="2">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D261" s="2">
         <f t="shared" si="9"/>
@@ -18822,14 +18822,14 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B262" s="2">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D262" s="2">
         <f t="shared" si="9"/>
@@ -18838,14 +18838,14 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B263" s="2">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D263" s="2">
         <f t="shared" si="9"/>
@@ -18854,14 +18854,14 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B264" s="2">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D264" s="2">
         <f t="shared" si="9"/>
@@ -18870,14 +18870,14 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B265" s="2">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D265" s="2">
         <f t="shared" si="9"/>
@@ -18886,14 +18886,14 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B266" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D266" s="2">
         <f t="shared" si="9"/>
@@ -18902,14 +18902,14 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B267" s="2">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D267" s="2">
         <f t="shared" si="9"/>
@@ -18918,14 +18918,14 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B268" s="2">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D268" s="2">
         <f t="shared" si="9"/>
@@ -18934,14 +18934,14 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B269" s="2">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D269" s="2">
         <f t="shared" si="9"/>
@@ -18950,14 +18950,14 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B270" s="2">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D270" s="2">
         <f t="shared" si="9"/>
@@ -18966,14 +18966,14 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B271" s="2">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D271" s="2">
         <f t="shared" si="9"/>
@@ -18982,14 +18982,14 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B272" s="2">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D272" s="2">
         <f t="shared" si="9"/>
@@ -18998,14 +18998,14 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B273" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D273" s="2">
         <f t="shared" si="9"/>
@@ -19014,14 +19014,14 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B274" s="2">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D274" s="2">
         <f t="shared" si="9"/>
@@ -19030,14 +19030,14 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B275" s="2">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D275" s="2">
         <f t="shared" si="9"/>
@@ -19046,14 +19046,14 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B276" s="2">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D276" s="2">
         <f t="shared" si="9"/>
@@ -19062,14 +19062,14 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B277" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D277" s="2">
         <f t="shared" si="9"/>
@@ -19078,14 +19078,14 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B278" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D278" s="2">
         <f t="shared" si="9"/>
@@ -19094,14 +19094,14 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B279" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D279" s="2">
         <f t="shared" si="9"/>
@@ -19110,14 +19110,14 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B280" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D280" s="2">
         <f t="shared" si="9"/>
@@ -19126,14 +19126,14 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B281" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D281" s="2">
         <f t="shared" si="9"/>
@@ -19142,14 +19142,14 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B282" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D282" s="2">
         <f t="shared" si="9"/>
@@ -19158,14 +19158,14 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B283" s="2">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D283" s="2">
         <f t="shared" si="9"/>
@@ -19174,14 +19174,14 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B284" s="2">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D284" s="2">
         <f t="shared" si="9"/>
@@ -19190,14 +19190,14 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B285" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D285" s="2">
         <f t="shared" si="9"/>
@@ -19206,14 +19206,14 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B286" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D286" s="2">
         <f t="shared" si="9"/>
@@ -19222,14 +19222,14 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B287" s="2">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D287" s="2">
         <f t="shared" si="9"/>
@@ -19238,14 +19238,14 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B288" s="2">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D288" s="2">
         <f t="shared" si="9"/>
@@ -19254,14 +19254,14 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B289" s="2">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D289" s="2">
         <f t="shared" si="9"/>
@@ -19270,14 +19270,14 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B290" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D290" s="2">
         <f t="shared" si="9"/>
@@ -19286,14 +19286,14 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B291" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D291" s="2">
         <f t="shared" si="9"/>
@@ -19302,14 +19302,14 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B292" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D292" s="2">
         <f t="shared" si="9"/>
@@ -19318,14 +19318,14 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B293" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D293" s="2">
         <f t="shared" si="9"/>
@@ -19334,14 +19334,14 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B294" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D294" s="2">
         <f t="shared" si="9"/>
@@ -19350,14 +19350,14 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B295" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D295" s="2">
         <f t="shared" si="9"/>
@@ -19366,14 +19366,14 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B296" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D296" s="2">
         <f t="shared" si="9"/>
@@ -19382,14 +19382,14 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B297" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D297" s="2">
         <f t="shared" si="9"/>
@@ -19398,14 +19398,14 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B298" s="2">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D298" s="2">
         <f t="shared" si="9"/>
@@ -19414,14 +19414,14 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B299" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D299" s="2">
         <f t="shared" si="9"/>
@@ -19430,14 +19430,14 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B300" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D300" s="2">
         <f t="shared" si="9"/>
@@ -19446,14 +19446,14 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B301" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D301" s="2">
         <f t="shared" si="9"/>
@@ -19462,14 +19462,14 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B302" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D302" s="2">
         <f t="shared" si="9"/>
@@ -19478,14 +19478,14 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B303" s="2">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D303" s="2">
         <f t="shared" si="9"/>
@@ -19494,14 +19494,14 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B304" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D304" s="2">
         <f t="shared" si="9"/>
@@ -19510,14 +19510,14 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B305" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D305" s="2">
         <f t="shared" si="9"/>
@@ -19526,14 +19526,14 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B306" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D306" s="2">
         <f t="shared" si="9"/>
@@ -19542,14 +19542,14 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B307" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D307" s="2">
         <f t="shared" si="9"/>
@@ -19558,14 +19558,14 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B308" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D308" s="2">
         <f t="shared" si="9"/>
@@ -19574,14 +19574,14 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B309" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D309" s="2">
         <f t="shared" si="9"/>
@@ -19590,14 +19590,14 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B310" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D310" s="2">
         <f t="shared" si="9"/>
@@ -19606,14 +19606,14 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B311" s="2">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D311" s="2">
         <f t="shared" si="9"/>
@@ -19622,14 +19622,14 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B312" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D312" s="2">
         <f t="shared" si="9"/>
@@ -19638,14 +19638,14 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B313" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D313" s="2">
         <f t="shared" si="9"/>
@@ -19654,14 +19654,14 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B314" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D314" s="2">
         <f t="shared" si="9"/>
@@ -19670,14 +19670,14 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B315" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D315" s="2">
         <f t="shared" si="9"/>
@@ -19686,14 +19686,14 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B316" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D316" s="2">
         <f t="shared" si="9"/>
@@ -19702,14 +19702,14 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B317" s="2">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D317" s="2">
         <f t="shared" si="9"/>
@@ -19718,14 +19718,14 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B318" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D318" s="2">
         <f t="shared" si="9"/>
@@ -19734,14 +19734,14 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B319" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D319" s="2">
         <f t="shared" si="9"/>
@@ -19750,14 +19750,14 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B320" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D320" s="2">
         <f t="shared" si="9"/>
@@ -19766,14 +19766,14 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B321" s="2">
         <f t="shared" ref="B321:B384" si="10">LEN(A321)</f>
         <v>4</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D321" s="2">
         <f t="shared" ref="D321:D384" si="11">LEN(C321)</f>
@@ -19782,14 +19782,14 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B322" s="2">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D322" s="2">
         <f t="shared" si="11"/>
@@ -19798,14 +19798,14 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B323" s="2">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D323" s="2">
         <f t="shared" si="11"/>
@@ -19814,14 +19814,14 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B324" s="2">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D324" s="2">
         <f t="shared" si="11"/>
@@ -19830,14 +19830,14 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B325" s="2">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D325" s="2">
         <f t="shared" si="11"/>
@@ -19846,14 +19846,14 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B326" s="2">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D326" s="2">
         <f t="shared" si="11"/>
@@ -19862,14 +19862,14 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B327" s="2">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D327" s="2">
         <f t="shared" si="11"/>
@@ -19878,14 +19878,14 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B328" s="2">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D328" s="2">
         <f t="shared" si="11"/>
@@ -19894,14 +19894,14 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B329" s="2">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D329" s="2">
         <f t="shared" si="11"/>
@@ -19910,14 +19910,14 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B330" s="2">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D330" s="2">
         <f t="shared" si="11"/>
@@ -19926,14 +19926,14 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B331" s="2">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D331" s="2">
         <f t="shared" si="11"/>
@@ -19942,14 +19942,14 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B332" s="2">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D332" s="2">
         <f t="shared" si="11"/>
@@ -19958,14 +19958,14 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B333" s="2">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D333" s="2">
         <f t="shared" si="11"/>
@@ -19974,14 +19974,14 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B334" s="2">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D334" s="2">
         <f t="shared" si="11"/>
@@ -19990,14 +19990,14 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B335" s="2">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D335" s="2">
         <f t="shared" si="11"/>
@@ -20006,14 +20006,14 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B336" s="2">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D336" s="2">
         <f t="shared" si="11"/>
@@ -20022,14 +20022,14 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B337" s="2">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D337" s="2">
         <f t="shared" si="11"/>
@@ -20038,14 +20038,14 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B338" s="2">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D338" s="2">
         <f t="shared" si="11"/>
@@ -20054,14 +20054,14 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B339" s="2">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D339" s="2">
         <f t="shared" si="11"/>
@@ -20086,14 +20086,14 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B341" s="2">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D341" s="2">
         <f t="shared" si="11"/>
@@ -20102,14 +20102,14 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B342" s="2">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D342" s="2">
         <f t="shared" si="11"/>
@@ -20118,14 +20118,14 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B343" s="2">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D343" s="2">
         <f t="shared" si="11"/>
@@ -20134,14 +20134,14 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B344" s="2">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D344" s="2">
         <f t="shared" si="11"/>
@@ -20150,14 +20150,14 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B345" s="2">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D345" s="2">
         <f t="shared" si="11"/>
@@ -20166,14 +20166,14 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B346" s="2">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D346" s="2">
         <f t="shared" si="11"/>
@@ -20182,14 +20182,14 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B347" s="2">
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D347" s="2">
         <f t="shared" si="11"/>
@@ -20198,14 +20198,14 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B348" s="2">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D348" s="2">
         <f t="shared" si="11"/>
@@ -20214,14 +20214,14 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B349" s="2">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D349" s="2">
         <f t="shared" si="11"/>
@@ -20230,14 +20230,14 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B350" s="2">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D350" s="2">
         <f t="shared" si="11"/>
@@ -20246,14 +20246,14 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B351" s="2">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D351" s="2">
         <f t="shared" si="11"/>
@@ -20262,14 +20262,14 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B352" s="2">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D352" s="2">
         <f t="shared" si="11"/>
@@ -20278,14 +20278,14 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B353" s="2">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D353" s="2">
         <f t="shared" si="11"/>
@@ -20294,14 +20294,14 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B354" s="2">
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D354" s="2">
         <f t="shared" si="11"/>
@@ -20310,14 +20310,14 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B355" s="2">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D355" s="2">
         <f t="shared" si="11"/>
@@ -20326,14 +20326,14 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B356" s="2">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D356" s="2">
         <f t="shared" si="11"/>
@@ -20342,14 +20342,14 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B357" s="2">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D357" s="2">
         <f t="shared" si="11"/>
@@ -20358,14 +20358,14 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B358" s="2">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D358" s="2">
         <f t="shared" si="11"/>
@@ -20374,14 +20374,14 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B359" s="2">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D359" s="2">
         <f t="shared" si="11"/>
@@ -20390,14 +20390,14 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B360" s="2">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D360" s="2">
         <f t="shared" si="11"/>
@@ -20406,14 +20406,14 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B361" s="2">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D361" s="2">
         <f t="shared" si="11"/>
@@ -20422,14 +20422,14 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B362" s="2">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D362" s="2">
         <f t="shared" si="11"/>
@@ -20438,7 +20438,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B363" s="2">
         <f t="shared" si="10"/>
@@ -20454,14 +20454,14 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B364" s="2">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D364" s="2">
         <f t="shared" si="11"/>
@@ -20470,14 +20470,14 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B365" s="2">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D365" s="2">
         <f t="shared" si="11"/>
@@ -20486,14 +20486,14 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B366" s="2">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D366" s="2">
         <f t="shared" si="11"/>
@@ -20502,14 +20502,14 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B367" s="2">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D367" s="2">
         <f t="shared" si="11"/>
@@ -20518,14 +20518,14 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B368" s="2">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D368" s="2">
         <f t="shared" si="11"/>
@@ -20534,14 +20534,14 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B369" s="2">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D369" s="2">
         <f t="shared" si="11"/>
@@ -20550,14 +20550,14 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B370" s="2">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D370" s="2">
         <f t="shared" si="11"/>
@@ -20566,14 +20566,14 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B371" s="2">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D371" s="2">
         <f t="shared" si="11"/>
@@ -20582,14 +20582,14 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B372" s="2">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D372" s="2">
         <f t="shared" si="11"/>
@@ -20598,14 +20598,14 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B373" s="2">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D373" s="2">
         <f t="shared" si="11"/>
@@ -20630,14 +20630,14 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B375" s="2">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D375" s="2">
         <f t="shared" si="11"/>
@@ -20646,14 +20646,14 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B376" s="2">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D376" s="2">
         <f t="shared" si="11"/>
@@ -20662,14 +20662,14 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B377" s="2">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D377" s="2">
         <f t="shared" si="11"/>
@@ -20678,14 +20678,14 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B378" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D378" s="2">
         <f t="shared" si="11"/>
@@ -20694,14 +20694,14 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B379" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D379" s="2">
         <f t="shared" si="11"/>
@@ -20710,14 +20710,14 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B380" s="2">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D380" s="2">
         <f t="shared" si="11"/>
@@ -20726,14 +20726,14 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B381" s="2">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D381" s="2">
         <f t="shared" si="11"/>
@@ -20742,14 +20742,14 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B382" s="2">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D382" s="2">
         <f t="shared" si="11"/>
@@ -20758,14 +20758,14 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B383" s="2">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D383" s="2">
         <f t="shared" si="11"/>
@@ -20774,14 +20774,14 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B384" s="2">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D384" s="2">
         <f t="shared" si="11"/>
@@ -20790,14 +20790,14 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B385" s="2">
         <f t="shared" ref="B385:B448" si="12">LEN(A385)</f>
         <v>12</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D385" s="2">
         <f t="shared" ref="D385:D448" si="13">LEN(C385)</f>
@@ -20806,14 +20806,14 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B386" s="2">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D386" s="2">
         <f t="shared" si="13"/>
@@ -20822,14 +20822,14 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B387" s="2">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D387" s="2">
         <f t="shared" si="13"/>
@@ -20838,14 +20838,14 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B388" s="2">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D388" s="2">
         <f t="shared" si="13"/>
@@ -20854,14 +20854,14 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B389" s="2">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D389" s="2">
         <f t="shared" si="13"/>
@@ -20870,14 +20870,14 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B390" s="2">
         <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D390" s="2">
         <f t="shared" si="13"/>
@@ -20886,14 +20886,14 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B391" s="2">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D391" s="2">
         <f t="shared" si="13"/>
@@ -20902,14 +20902,14 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B392" s="2">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D392" s="2">
         <f t="shared" si="13"/>
@@ -20918,14 +20918,14 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B393" s="2">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D393" s="2">
         <f t="shared" si="13"/>
@@ -20934,14 +20934,14 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B394" s="2">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D394" s="2">
         <f t="shared" si="13"/>
@@ -20950,14 +20950,14 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B395" s="2">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D395" s="2">
         <f t="shared" si="13"/>
@@ -20966,14 +20966,14 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B396" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D396" s="2">
         <f t="shared" si="13"/>
@@ -20982,14 +20982,14 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B397" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D397" s="2">
         <f t="shared" si="13"/>
@@ -20998,14 +20998,14 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B398" s="2">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D398" s="2">
         <f t="shared" si="13"/>
@@ -21014,14 +21014,14 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B399" s="2">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D399" s="2">
         <f t="shared" si="13"/>
@@ -21030,14 +21030,14 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B400" s="2">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D400" s="2">
         <f t="shared" si="13"/>
@@ -21046,14 +21046,14 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B401" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D401" s="2">
         <f t="shared" si="13"/>
@@ -21062,14 +21062,14 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B402" s="2">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D402" s="2">
         <f t="shared" si="13"/>
@@ -21078,14 +21078,14 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B403" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D403" s="2">
         <f t="shared" si="13"/>
@@ -21094,14 +21094,14 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B404" s="2">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D404" s="2">
         <f t="shared" si="13"/>
@@ -21110,14 +21110,14 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B405" s="2">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D405" s="2">
         <f t="shared" si="13"/>
@@ -21126,14 +21126,14 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B406" s="2">
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D406" s="2">
         <f t="shared" si="13"/>
@@ -21142,14 +21142,14 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B407" s="2">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D407" s="2">
         <f t="shared" si="13"/>
@@ -21158,14 +21158,14 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B408" s="2">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D408" s="2">
         <f t="shared" si="13"/>
@@ -21174,14 +21174,14 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B409" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D409" s="2">
         <f t="shared" si="13"/>
@@ -21190,14 +21190,14 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B410" s="2">
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D410" s="2">
         <f t="shared" si="13"/>
@@ -21206,14 +21206,14 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B411" s="2">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D411" s="2">
         <f t="shared" si="13"/>
@@ -21222,14 +21222,14 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B412" s="2">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D412" s="2">
         <f t="shared" si="13"/>
@@ -21238,14 +21238,14 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B413" s="2">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D413" s="2">
         <f t="shared" si="13"/>
@@ -21254,14 +21254,14 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B414" s="2">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D414" s="2">
         <f t="shared" si="13"/>
@@ -21270,14 +21270,14 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B415" s="2">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D415" s="2">
         <f t="shared" si="13"/>
@@ -21286,14 +21286,14 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B416" s="2">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D416" s="2">
         <f t="shared" si="13"/>
@@ -21302,14 +21302,14 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B417" s="2">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D417" s="2">
         <f t="shared" si="13"/>
@@ -21318,14 +21318,14 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B418" s="2">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D418" s="2">
         <f t="shared" si="13"/>
@@ -21334,14 +21334,14 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B419" s="2">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D419" s="2">
         <f t="shared" si="13"/>
@@ -21350,14 +21350,14 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B420" s="2">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D420" s="2">
         <f t="shared" si="13"/>
@@ -21366,14 +21366,14 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B421" s="2">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D421" s="2">
         <f t="shared" si="13"/>
@@ -21382,14 +21382,14 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B422" s="2">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D422" s="2">
         <f t="shared" si="13"/>
@@ -21398,14 +21398,14 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B423" s="2">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D423" s="2">
         <f t="shared" si="13"/>
@@ -21414,14 +21414,14 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B424" s="2">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D424" s="2">
         <f t="shared" si="13"/>
@@ -21430,14 +21430,14 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B425" s="2">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D425" s="2">
         <f t="shared" si="13"/>
@@ -21446,14 +21446,14 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B426" s="2">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D426" s="2">
         <f t="shared" si="13"/>
@@ -21462,14 +21462,14 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B427" s="2">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D427" s="2">
         <f t="shared" si="13"/>
@@ -21478,14 +21478,14 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B428" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D428" s="2">
         <f t="shared" si="13"/>
@@ -21494,14 +21494,14 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B429" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D429" s="2">
         <f t="shared" si="13"/>
@@ -21510,14 +21510,14 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B430" s="2">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D430" s="2">
         <f t="shared" si="13"/>
@@ -21526,14 +21526,14 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B431" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D431" s="2">
         <f t="shared" si="13"/>
@@ -21542,14 +21542,14 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B432" s="2">
         <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D432" s="2">
         <f t="shared" si="13"/>
@@ -21558,14 +21558,14 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B433" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D433" s="2">
         <f t="shared" si="13"/>
@@ -21574,14 +21574,14 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B434" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D434" s="2">
         <f t="shared" si="13"/>
@@ -21590,14 +21590,14 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B435" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D435" s="2">
         <f t="shared" si="13"/>
@@ -21606,14 +21606,14 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B436" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D436" s="2">
         <f t="shared" si="13"/>
@@ -21622,14 +21622,14 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B437" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D437" s="2">
         <f t="shared" si="13"/>
@@ -21638,14 +21638,14 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B438" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D438" s="2">
         <f t="shared" si="13"/>
@@ -21654,14 +21654,14 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B439" s="2">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D439" s="2">
         <f t="shared" si="13"/>
@@ -21670,14 +21670,14 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B440" s="2">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D440" s="2">
         <f t="shared" si="13"/>
@@ -21686,14 +21686,14 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B441" s="2">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D441" s="2">
         <f t="shared" si="13"/>
@@ -21702,14 +21702,14 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B442" s="2">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D442" s="2">
         <f t="shared" si="13"/>
@@ -21718,14 +21718,14 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B443" s="2">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D443" s="2">
         <f t="shared" si="13"/>
@@ -21734,14 +21734,14 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B444" s="2">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D444" s="2">
         <f t="shared" si="13"/>
@@ -21750,14 +21750,14 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B445" s="2">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D445" s="2">
         <f t="shared" si="13"/>
@@ -21766,14 +21766,14 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B446" s="2">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D446" s="2">
         <f t="shared" si="13"/>
@@ -21782,14 +21782,14 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B447" s="2">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D447" s="2">
         <f t="shared" si="13"/>
@@ -21798,14 +21798,14 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B448" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D448" s="2">
         <f t="shared" si="13"/>
@@ -21814,14 +21814,14 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B449" s="2">
         <f t="shared" ref="B449:B512" si="14">LEN(A449)</f>
         <v>19</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D449" s="2">
         <f t="shared" ref="D449:D512" si="15">LEN(C449)</f>
@@ -21830,14 +21830,14 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B450" s="2">
         <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D450" s="2">
         <f t="shared" si="15"/>
@@ -21846,14 +21846,14 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B451" s="2">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D451" s="2">
         <f t="shared" si="15"/>
@@ -21862,14 +21862,14 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B452" s="2">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D452" s="2">
         <f t="shared" si="15"/>
@@ -21878,14 +21878,14 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B453" s="2">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D453" s="2">
         <f t="shared" si="15"/>
@@ -21894,14 +21894,14 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B454" s="2">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D454" s="2">
         <f t="shared" si="15"/>
@@ -21910,14 +21910,14 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B455" s="2">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D455" s="2">
         <f t="shared" si="15"/>
@@ -21926,14 +21926,14 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B456" s="2">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D456" s="2">
         <f t="shared" si="15"/>
@@ -21942,14 +21942,14 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B457" s="2">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D457" s="2">
         <f t="shared" si="15"/>
@@ -21958,14 +21958,14 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B458" s="2">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D458" s="2">
         <f t="shared" si="15"/>
@@ -21974,14 +21974,14 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B459" s="2">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D459" s="2">
         <f t="shared" si="15"/>
@@ -21990,14 +21990,14 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B460" s="2">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D460" s="2">
         <f t="shared" si="15"/>
@@ -22006,14 +22006,14 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B461" s="2">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D461" s="2">
         <f t="shared" si="15"/>
@@ -22022,14 +22022,14 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B462" s="2">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D462" s="2">
         <f t="shared" si="15"/>
@@ -22038,14 +22038,14 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B463" s="2">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D463" s="2">
         <f t="shared" si="15"/>
@@ -22054,14 +22054,14 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B464" s="2">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D464" s="2">
         <f t="shared" si="15"/>
@@ -22070,14 +22070,14 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B465" s="2">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D465" s="2">
         <f t="shared" si="15"/>
@@ -22086,14 +22086,14 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B466" s="2">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D466" s="2">
         <f t="shared" si="15"/>
@@ -22102,14 +22102,14 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B467" s="2">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D467" s="2">
         <f t="shared" si="15"/>
@@ -22118,14 +22118,14 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B468" s="2">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D468" s="2">
         <f t="shared" si="15"/>
@@ -22134,14 +22134,14 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B469" s="2">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D469" s="2">
         <f t="shared" si="15"/>
@@ -22150,14 +22150,14 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B470" s="2">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D470" s="2">
         <f t="shared" si="15"/>
@@ -22166,14 +22166,14 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B471" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D471" s="2">
         <f t="shared" si="15"/>
@@ -22182,14 +22182,14 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B472" s="2">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D472" s="2">
         <f t="shared" si="15"/>
@@ -22198,14 +22198,14 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B473" s="2">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D473" s="2">
         <f t="shared" si="15"/>
@@ -22214,14 +22214,14 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B474" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D474" s="2">
         <f t="shared" si="15"/>
@@ -22230,14 +22230,14 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B475" s="2">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D475" s="2">
         <f t="shared" si="15"/>
@@ -22262,14 +22262,14 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B477" s="2">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D477" s="2">
         <f t="shared" si="15"/>
@@ -22278,14 +22278,14 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B478" s="2">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D478" s="2">
         <f t="shared" si="15"/>
@@ -22294,14 +22294,14 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B479" s="2">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D479" s="2">
         <f t="shared" si="15"/>
@@ -22310,14 +22310,14 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B480" s="2">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D480" s="2">
         <f t="shared" si="15"/>
@@ -22326,14 +22326,14 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B481" s="2">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D481" s="2">
         <f t="shared" si="15"/>
@@ -22342,14 +22342,14 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B482" s="2">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D482" s="2">
         <f t="shared" si="15"/>
@@ -22358,14 +22358,14 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B483" s="2">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D483" s="2">
         <f t="shared" si="15"/>
@@ -22374,14 +22374,14 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B484" s="2">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D484" s="2">
         <f t="shared" si="15"/>
@@ -22390,14 +22390,14 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B485" s="2">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D485" s="2">
         <f t="shared" si="15"/>
@@ -22406,14 +22406,14 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B486" s="2">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D486" s="2">
         <f t="shared" si="15"/>
@@ -22422,14 +22422,14 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B487" s="2">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D487" s="2">
         <f t="shared" si="15"/>
@@ -22438,14 +22438,14 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B488" s="2">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D488" s="2">
         <f t="shared" si="15"/>
@@ -22454,14 +22454,14 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B489" s="2">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D489" s="2">
         <f t="shared" si="15"/>
@@ -22470,14 +22470,14 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B490" s="2">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D490" s="2">
         <f t="shared" si="15"/>
@@ -22486,14 +22486,14 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B491" s="2">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D491" s="2">
         <f t="shared" si="15"/>
@@ -22502,14 +22502,14 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B492" s="2">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D492" s="2">
         <f t="shared" si="15"/>
@@ -22518,14 +22518,14 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B493" s="2">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D493" s="2">
         <f t="shared" si="15"/>
@@ -22534,14 +22534,14 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B494" s="2">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D494" s="2">
         <f t="shared" si="15"/>
@@ -22550,14 +22550,14 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B495" s="2">
         <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D495" s="2">
         <f t="shared" si="15"/>
@@ -22566,14 +22566,14 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B496" s="2">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D496" s="2">
         <f t="shared" si="15"/>
@@ -22582,14 +22582,14 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B497" s="2">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D497" s="2">
         <f t="shared" si="15"/>
@@ -22598,14 +22598,14 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B498" s="2">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D498" s="2">
         <f t="shared" si="15"/>
@@ -22614,14 +22614,14 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B499" s="2">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D499" s="2">
         <f t="shared" si="15"/>
@@ -22630,14 +22630,14 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B500" s="2">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D500" s="2">
         <f t="shared" si="15"/>
@@ -22646,14 +22646,14 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B501" s="2">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D501" s="2">
         <f t="shared" si="15"/>
@@ -22662,14 +22662,14 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B502" s="2">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D502" s="2">
         <f t="shared" si="15"/>
@@ -22678,14 +22678,14 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B503" s="2">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D503" s="2">
         <f t="shared" si="15"/>
@@ -22694,14 +22694,14 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B504" s="2">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D504" s="2">
         <f t="shared" si="15"/>
@@ -22710,14 +22710,14 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B505" s="2">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D505" s="2">
         <f t="shared" si="15"/>
@@ -22726,14 +22726,14 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B506" s="2">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D506" s="2">
         <f t="shared" si="15"/>
@@ -22742,14 +22742,14 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B507" s="2">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D507" s="2">
         <f t="shared" si="15"/>
@@ -22758,14 +22758,14 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B508" s="2">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D508" s="2">
         <f t="shared" si="15"/>
@@ -22774,14 +22774,14 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B509" s="2">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D509" s="2">
         <f t="shared" si="15"/>
@@ -22790,14 +22790,14 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B510" s="2">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D510" s="2">
         <f t="shared" si="15"/>
@@ -22806,14 +22806,14 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B511" s="2">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D511" s="2">
         <f t="shared" si="15"/>
@@ -22822,14 +22822,14 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B512" s="2">
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D512" s="2">
         <f t="shared" si="15"/>
@@ -22838,14 +22838,14 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B513" s="2">
         <f t="shared" ref="B513:B576" si="16">LEN(A513)</f>
         <v>12</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D513" s="2">
         <f t="shared" ref="D513:D576" si="17">LEN(C513)</f>
@@ -22854,14 +22854,14 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B514" s="2">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D514" s="2">
         <f t="shared" si="17"/>
@@ -22870,14 +22870,14 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B515" s="2">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D515" s="2">
         <f t="shared" si="17"/>
@@ -22886,14 +22886,14 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B516" s="2">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D516" s="2">
         <f t="shared" si="17"/>
@@ -22902,14 +22902,14 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B517" s="2">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D517" s="2">
         <f t="shared" si="17"/>
@@ -22918,14 +22918,14 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B518" s="2">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D518" s="2">
         <f t="shared" si="17"/>
@@ -22934,14 +22934,14 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B519" s="2">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D519" s="2">
         <f t="shared" si="17"/>
@@ -22950,14 +22950,14 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B520" s="2">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D520" s="2">
         <f t="shared" si="17"/>
@@ -22966,14 +22966,14 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B521" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D521" s="2">
         <f t="shared" si="17"/>
@@ -22982,14 +22982,14 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B522" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D522" s="2">
         <f t="shared" si="17"/>
@@ -22998,14 +22998,14 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B523" s="2">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D523" s="2">
         <f t="shared" si="17"/>
@@ -23014,14 +23014,14 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B524" s="2">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D524" s="2">
         <f t="shared" si="17"/>
@@ -23030,14 +23030,14 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B525" s="2">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D525" s="2">
         <f t="shared" si="17"/>
@@ -23046,14 +23046,14 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B526" s="2">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D526" s="2">
         <f t="shared" si="17"/>
@@ -23062,14 +23062,14 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B527" s="2">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D527" s="2">
         <f t="shared" si="17"/>
@@ -23078,14 +23078,14 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B528" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D528" s="2">
         <f t="shared" si="17"/>
@@ -23094,14 +23094,14 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B529" s="2">
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D529" s="2">
         <f t="shared" si="17"/>
@@ -23110,14 +23110,14 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B530" s="2">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D530" s="2">
         <f t="shared" si="17"/>
@@ -23126,14 +23126,14 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B531" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D531" s="2">
         <f t="shared" si="17"/>
@@ -23142,14 +23142,14 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B532" s="2">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D532" s="2">
         <f t="shared" si="17"/>
@@ -23174,14 +23174,14 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B534" s="2">
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D534" s="2">
         <f t="shared" si="17"/>
@@ -23190,14 +23190,14 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B535" s="2">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D535" s="2">
         <f t="shared" si="17"/>
@@ -23206,14 +23206,14 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B536" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D536" s="2">
         <f t="shared" si="17"/>
@@ -23222,14 +23222,14 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B537" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D537" s="2">
         <f t="shared" si="17"/>
@@ -23238,14 +23238,14 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B538" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D538" s="2">
         <f t="shared" si="17"/>
@@ -23254,14 +23254,14 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B539" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D539" s="2">
         <f t="shared" si="17"/>
@@ -23270,14 +23270,14 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B540" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D540" s="2">
         <f t="shared" si="17"/>
@@ -23286,14 +23286,14 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B541" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D541" s="2">
         <f t="shared" si="17"/>
@@ -23302,14 +23302,14 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B542" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D542" s="2">
         <f t="shared" si="17"/>
@@ -23318,14 +23318,14 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B543" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D543" s="2">
         <f t="shared" si="17"/>
@@ -23334,14 +23334,14 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B544" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D544" s="2">
         <f t="shared" si="17"/>
@@ -23350,14 +23350,14 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B545" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D545" s="2">
         <f t="shared" si="17"/>
@@ -23366,14 +23366,14 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B546" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D546" s="2">
         <f t="shared" si="17"/>
@@ -23382,14 +23382,14 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B547" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D547" s="2">
         <f t="shared" si="17"/>
@@ -23398,14 +23398,14 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B548" s="2">
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D548" s="2">
         <f t="shared" si="17"/>
@@ -23414,14 +23414,14 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B549" s="2">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D549" s="2">
         <f t="shared" si="17"/>
@@ -23430,14 +23430,14 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B550" s="2">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D550" s="2">
         <f t="shared" si="17"/>
@@ -23476,14 +23476,14 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B554" s="2">
         <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D554" s="2">
         <f t="shared" si="17"/>
@@ -23492,14 +23492,14 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B555" s="2">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D555" s="2">
         <f t="shared" si="17"/>
@@ -23508,14 +23508,14 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B556" s="2">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D556" s="2">
         <f t="shared" si="17"/>
@@ -23524,14 +23524,14 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B557" s="2">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D557" s="2">
         <f t="shared" si="17"/>
@@ -23540,14 +23540,14 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B558" s="2">
         <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D558" s="2">
         <f t="shared" si="17"/>
@@ -23556,14 +23556,14 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B559" s="2">
         <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D559" s="2">
         <f t="shared" si="17"/>
@@ -23572,14 +23572,14 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B560" s="2">
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D560" s="2">
         <f t="shared" si="17"/>
@@ -23588,14 +23588,14 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B561" s="2">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D561" s="2">
         <f t="shared" si="17"/>
@@ -23604,14 +23604,14 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B562" s="2">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D562" s="2">
         <f t="shared" si="17"/>
@@ -23620,14 +23620,14 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B563" s="2">
         <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D563" s="2">
         <f t="shared" si="17"/>
@@ -23636,14 +23636,14 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B564" s="2">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D564" s="2">
         <f t="shared" si="17"/>
@@ -23652,14 +23652,14 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B565" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D565" s="2">
         <f t="shared" si="17"/>
@@ -23668,14 +23668,14 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B566" s="2">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D566" s="2">
         <f t="shared" si="17"/>
@@ -23684,14 +23684,14 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B567" s="2">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D567" s="2">
         <f t="shared" si="17"/>
@@ -23700,14 +23700,14 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B568" s="2">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D568" s="2">
         <f t="shared" si="17"/>
@@ -23716,14 +23716,14 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B569" s="2">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D569" s="2">
         <f t="shared" si="17"/>
@@ -23732,14 +23732,14 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B570" s="2">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D570" s="2">
         <f t="shared" si="17"/>
@@ -23748,14 +23748,14 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B571" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D571" s="2">
         <f t="shared" si="17"/>
@@ -23764,14 +23764,14 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B572" s="2">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D572" s="2">
         <f t="shared" si="17"/>
@@ -23780,14 +23780,14 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B573" s="2">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D573" s="2">
         <f t="shared" si="17"/>
@@ -23796,14 +23796,14 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B574" s="2">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D574" s="2">
         <f t="shared" si="17"/>
@@ -23812,14 +23812,14 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B575" s="2">
         <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D575" s="2">
         <f t="shared" si="17"/>
@@ -23828,14 +23828,14 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B576" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D576" s="2">
         <f t="shared" si="17"/>
@@ -23844,14 +23844,14 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B577" s="2">
         <f t="shared" ref="B577:B595" si="18">LEN(A577)</f>
         <v>17</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D577" s="2">
         <f t="shared" ref="D577:D595" si="19">LEN(C577)</f>
@@ -23860,14 +23860,14 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B578" s="2">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D578" s="2">
         <f t="shared" si="19"/>
@@ -23876,14 +23876,14 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B579" s="2">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D579" s="2">
         <f t="shared" si="19"/>
@@ -23892,14 +23892,14 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B580" s="2">
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D580" s="2">
         <f t="shared" si="19"/>
@@ -23908,14 +23908,14 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B581" s="2">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D581" s="2">
         <f t="shared" si="19"/>
@@ -23924,14 +23924,14 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B582" s="2">
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D582" s="2">
         <f t="shared" si="19"/>
@@ -23940,14 +23940,14 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B583" s="2">
         <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D583" s="2">
         <f t="shared" si="19"/>
@@ -23956,14 +23956,14 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B584" s="2">
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D584" s="2">
         <f t="shared" si="19"/>
@@ -23972,14 +23972,14 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B585" s="2">
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D585" s="2">
         <f t="shared" si="19"/>
@@ -23988,14 +23988,14 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B586" s="2">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D586" s="2">
         <f t="shared" si="19"/>
@@ -24004,14 +24004,14 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B587" s="2">
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D587" s="2">
         <f t="shared" si="19"/>
@@ -24122,14 +24122,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B21" si="0">LEN(A1)</f>
         <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D21" si="1">LEN(C1)</f>
@@ -24154,14 +24154,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1635</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1636</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -24170,14 +24170,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1637</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1638</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -24186,14 +24186,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1639</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1640</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -24202,14 +24202,14 @@
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1641</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1642</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -24218,14 +24218,14 @@
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1643</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1644</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -24250,14 +24250,14 @@
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1645</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1646</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -24266,14 +24266,14 @@
     </row>
     <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1647</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1648</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -24298,14 +24298,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>1649</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1650</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -24314,14 +24314,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>1651</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1652</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -24330,14 +24330,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>1653</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1654</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -24362,14 +24362,14 @@
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1655</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1656</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
@@ -24378,14 +24378,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>1657</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1658</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
@@ -24410,14 +24410,14 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1659</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1660</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
@@ -24426,14 +24426,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>1661</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1662</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
@@ -24442,14 +24442,14 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>1663</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1664</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
@@ -24480,14 +24480,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B13" si="0">LEN(A1)</f>
         <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D13" si="1">LEN(C1)</f>
@@ -24496,14 +24496,14 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1667</v>
-      </c>
-      <c r="B2" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1668</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -24512,14 +24512,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1669</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1670</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -24528,14 +24528,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1671</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1672</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -24544,14 +24544,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1673</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1674</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -24560,14 +24560,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1675</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1676</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -24576,14 +24576,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1677</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1678</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -24672,14 +24672,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>1679</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1680</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -24733,7 +24733,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D2" s="2">
         <f>LEN(C2)</f>
@@ -24742,14 +24742,14 @@
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B3" s="2">
         <f>LEN(A3)</f>
         <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D3" s="2">
         <f>LEN(C3)</f>
@@ -24758,14 +24758,14 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B4" s="2">
         <f>LEN(A4)</f>
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D4" s="2">
         <f>LEN(C4)</f>
@@ -24796,14 +24796,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B1" s="2">
         <f>LEN(A1)</f>
         <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D1" s="2">
         <f>LEN(C1)</f>
@@ -24819,7 +24819,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D2" s="2">
         <f>LEN(C2)</f>
@@ -24835,7 +24835,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D3" s="2">
         <f>LEN(C3)</f>
@@ -24882,14 +24882,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B1" s="2">
         <f>LEN(A1)</f>
         <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D1" s="2">
         <f>LEN(C1)</f>
@@ -24898,7 +24898,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B2" s="2">
         <f>LEN(A2)</f>
@@ -24914,7 +24914,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B3" s="2">
         <f>LEN(A3)</f>
@@ -24952,14 +24952,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B8" si="0">LEN(A1)</f>
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D8" si="1">LEN(C1)</f>
@@ -24968,14 +24968,14 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -24984,14 +24984,14 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -25000,14 +25000,14 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -25016,14 +25016,14 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -25039,7 +25039,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -25048,14 +25048,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -25064,14 +25064,14 @@
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -25102,14 +25102,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B9" si="0">LEN(A1)</f>
         <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D9" si="1">LEN(C1)</f>
@@ -25118,14 +25118,14 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -25134,14 +25134,14 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -25150,14 +25150,14 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B4" s="2">
         <f>LEN(A4)</f>
         <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -25166,14 +25166,14 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -25182,14 +25182,14 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -25205,7 +25205,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -25214,14 +25214,14 @@
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -25230,14 +25230,14 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -25387,14 +25387,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B8" si="0">LEN(A1)</f>
         <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D8" si="1">LEN(C1)</f>
@@ -25406,14 +25406,14 @@
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -25426,14 +25426,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -25446,14 +25446,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -25466,14 +25466,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -25486,14 +25486,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -25506,14 +25506,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -25526,14 +25526,14 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -25580,14 +25580,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B12" si="0">LEN(A1)</f>
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D12" si="1">LEN(C1)</f>
@@ -25596,14 +25596,14 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -25612,14 +25612,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -25628,14 +25628,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -25644,14 +25644,14 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -25660,14 +25660,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -25676,14 +25676,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -25692,14 +25692,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -25708,14 +25708,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -25724,14 +25724,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -25747,7 +25747,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -25756,14 +25756,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -25794,14 +25794,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B20" si="0">LEN(A1)</f>
         <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D20" si="1">LEN(C1)</f>
@@ -25826,14 +25826,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1725</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1726</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -25842,14 +25842,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1727</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1728</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -25858,14 +25858,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1729</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1730</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -25874,14 +25874,14 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1731</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1732</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -25890,14 +25890,14 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1734</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -25922,14 +25922,14 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1735</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1736</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -25938,14 +25938,14 @@
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1737</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1738</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -25954,14 +25954,14 @@
     </row>
     <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1739</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>218</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1740</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -25977,7 +25977,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -25986,14 +25986,14 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1742</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1743</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -26002,14 +26002,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>1744</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1745</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -26018,14 +26018,14 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>1746</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1747</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
@@ -26034,14 +26034,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>1748</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1749</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
@@ -26050,14 +26050,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>1750</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1751</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
@@ -26082,14 +26082,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
@@ -26098,14 +26098,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>1753</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1754</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
@@ -26136,14 +26136,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B11" si="0">LEN(A1)</f>
         <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D11" si="1">LEN(C1)</f>
@@ -26152,14 +26152,14 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -26168,14 +26168,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -26184,14 +26184,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -26200,14 +26200,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -26216,14 +26216,14 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -26239,7 +26239,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -26255,7 +26255,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -26271,7 +26271,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -26287,7 +26287,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -26296,14 +26296,14 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -26341,7 +26341,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D1" s="2">
         <f>LEN(C1)</f>
@@ -26350,14 +26350,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B2" s="2">
         <f>LEN(A2)</f>
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D2" s="2">
         <f>LEN(C2)</f>
@@ -26373,7 +26373,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D3" s="2">
         <f>LEN(C3)</f>
@@ -26389,7 +26389,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D4" s="2">
         <f>LEN(C4)</f>
@@ -26398,14 +26398,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B5" s="2">
         <f>LEN(A5)</f>
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D5" s="2">
         <f>LEN(C5)</f>
@@ -26436,14 +26436,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B1" s="2">
         <f t="shared" ref="B1:B12" si="0">LEN(A1)</f>
         <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D12" si="1">LEN(C1)</f>
@@ -26452,14 +26452,14 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -26468,14 +26468,14 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -26484,14 +26484,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -26500,14 +26500,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -26516,14 +26516,14 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -26532,14 +26532,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -26548,14 +26548,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -26571,7 +26571,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -26596,14 +26596,14 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -26612,14 +26612,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -26660,7 +26660,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:D25" si="1">LEN(C1)</f>
@@ -26669,14 +26669,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
@@ -26685,14 +26685,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
@@ -26701,14 +26701,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -26717,14 +26717,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -26733,14 +26733,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -26749,14 +26749,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -26765,14 +26765,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -26781,14 +26781,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -26797,14 +26797,14 @@
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -26813,14 +26813,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -26836,7 +26836,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -26852,7 +26852,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -26868,7 +26868,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -26884,7 +26884,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
@@ -26900,7 +26900,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
@@ -26916,7 +26916,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
@@ -26932,7 +26932,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
@@ -26941,14 +26941,14 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
@@ -26957,14 +26957,14 @@
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
@@ -26980,7 +26980,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
@@ -26996,7 +26996,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
@@ -27021,14 +27021,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
@@ -27044,7 +27044,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
